--- a/logistik/web/uploads/TemplateInputSN (1).xlsx
+++ b/logistik/web/uploads/TemplateInputSN (1).xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syifaalistia\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7020"/>
+    <workbookView xWindow="630" yWindow="555" windowWidth="14055" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="610">
   <si>
     <t>SERIAL_NUMBER</t>
   </si>
@@ -52,24 +47,1815 @@
     <t>Good for Recondtion</t>
   </si>
   <si>
-    <t>SN00011</t>
+    <t>ZTEGCAFB9599</t>
+  </si>
+  <si>
+    <t>885DFBB6AE20</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9573</t>
+  </si>
+  <si>
+    <t>885DFBB6AD3C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9744</t>
+  </si>
+  <si>
+    <t>885DFBB6B822</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB971C</t>
+  </si>
+  <si>
+    <t>885DFBB6B732</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9587</t>
+  </si>
+  <si>
+    <t>885DFBB6ADB4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB971A</t>
+  </si>
+  <si>
+    <t>885DFBB6B726</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB957A</t>
+  </si>
+  <si>
+    <t>885DFBB6AD66</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9786</t>
+  </si>
+  <si>
+    <t>885DFBB6B9AE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9593</t>
+  </si>
+  <si>
+    <t>885DFBB6ADFC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB995C</t>
+  </si>
+  <si>
+    <t>885DFBB6C4B2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97A1</t>
+  </si>
+  <si>
+    <t>885DFBB6BA50</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97AE</t>
+  </si>
+  <si>
+    <t>885DFBB6BA9E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97B2</t>
+  </si>
+  <si>
+    <t>885DFBB6BAB6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7CD9</t>
+  </si>
+  <si>
+    <t>885DFBB619A0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB973D</t>
+  </si>
+  <si>
+    <t>885DFBB6B7F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9764</t>
+  </si>
+  <si>
+    <t>885DFBB6B8E2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74CC</t>
+  </si>
+  <si>
+    <t>885DFBB5E952</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F4A</t>
+  </si>
+  <si>
+    <t>885DFBB62846</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97A3</t>
+  </si>
+  <si>
+    <t>885DFBB6BA5C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB959A</t>
+  </si>
+  <si>
+    <t>885DFBB6AE26</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9790</t>
+  </si>
+  <si>
+    <t>885DFBB6B9EA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9750</t>
+  </si>
+  <si>
+    <t>885DFBB6B86A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB95B1</t>
+  </si>
+  <si>
+    <t>885DFBB6AEB0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74A3</t>
+  </si>
+  <si>
+    <t>885DFBB5E85C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9522</t>
+  </si>
+  <si>
+    <t>885DFBB6AB56</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74C6</t>
+  </si>
+  <si>
+    <t>885DFBB5E92E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9740</t>
+  </si>
+  <si>
+    <t>885DFBB6B80A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D02</t>
+  </si>
+  <si>
+    <t>885DFBB61A96</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F4D</t>
+  </si>
+  <si>
+    <t>885DFBB62858</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB959E</t>
+  </si>
+  <si>
+    <t>885DFBB6AE3E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8067</t>
+  </si>
+  <si>
+    <t>885DFBB62EF4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8117</t>
+  </si>
+  <si>
+    <t>885DFBB63314</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7DAB</t>
+  </si>
+  <si>
+    <t>885DFBB61E8C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80BD</t>
+  </si>
+  <si>
+    <t>885DFBB630F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A5F</t>
+  </si>
+  <si>
+    <t>885DFBB60AC4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80CF</t>
+  </si>
+  <si>
+    <t>885DFBB63164</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8155</t>
+  </si>
+  <si>
+    <t>885DFBB63488</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F0F</t>
+  </si>
+  <si>
+    <t>885DFBB626E4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8168</t>
+  </si>
+  <si>
+    <t>885DFBB634FA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8070</t>
+  </si>
+  <si>
+    <t>885DFBB62F2A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80CA</t>
+  </si>
+  <si>
+    <t>885DFBB63146</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8171</t>
+  </si>
+  <si>
+    <t>885DFBB63530</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81BD</t>
+  </si>
+  <si>
+    <t>885DFBB636F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80D2</t>
+  </si>
+  <si>
+    <t>885DFBB63176</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8011</t>
+  </si>
+  <si>
+    <t>885DFBB62CF0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB816C</t>
+  </si>
+  <si>
+    <t>885DFBB63512</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A3F</t>
+  </si>
+  <si>
+    <t>885DFBB60A04</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB801E</t>
+  </si>
+  <si>
+    <t>885DFBB62D3E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A78</t>
+  </si>
+  <si>
+    <t>885DFBB60B5A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8112</t>
+  </si>
+  <si>
+    <t>885DFBB632F6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AB3</t>
+  </si>
+  <si>
+    <t>885DFBB60CBC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80BB</t>
+  </si>
+  <si>
+    <t>885DFBB630EC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80CB</t>
+  </si>
+  <si>
+    <t>885DFBB6314C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F25</t>
+  </si>
+  <si>
+    <t>885DFBB62768</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81F0</t>
+  </si>
+  <si>
+    <t>885DFBB6382A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A9E</t>
+  </si>
+  <si>
+    <t>885DFBB60C3E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C3</t>
+  </si>
+  <si>
+    <t>885DFBB6371C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81F3</t>
+  </si>
+  <si>
+    <t>885DFBB6383C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BC2</t>
+  </si>
+  <si>
+    <t>885DFBB61316</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A93</t>
+  </si>
+  <si>
+    <t>885DFBB60BFC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8154</t>
+  </si>
+  <si>
+    <t>885DFBB63482</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81D6</t>
+  </si>
+  <si>
+    <t>885DFBB6378E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81CC</t>
+  </si>
+  <si>
+    <t>885DFBB63752</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7CA4</t>
+  </si>
+  <si>
+    <t>885DFBB61862</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AA7</t>
+  </si>
+  <si>
+    <t>885DFBB60C74</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7CF0</t>
+  </si>
+  <si>
+    <t>885DFBB61A2A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BA5</t>
+  </si>
+  <si>
+    <t>885DFBB61268</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C9</t>
+  </si>
+  <si>
+    <t>885DFBB63740</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7DE6</t>
+  </si>
+  <si>
+    <t>885DFBB61FEE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB811C</t>
+  </si>
+  <si>
+    <t>885DFBB63332</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8116</t>
+  </si>
+  <si>
+    <t>885DFBB6330E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB816A</t>
+  </si>
+  <si>
+    <t>885DFBB63506</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81BE</t>
+  </si>
+  <si>
+    <t>885DFBB636FE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7DAA</t>
+  </si>
+  <si>
+    <t>885DFBB61E86</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80FE</t>
+  </si>
+  <si>
+    <t>885DFBB6327E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7FC6</t>
+  </si>
+  <si>
+    <t>885DFBB62B2E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C0</t>
+  </si>
+  <si>
+    <t>885DFBB6370A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D59</t>
+  </si>
+  <si>
+    <t>885DFBB61CA0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8148</t>
+  </si>
+  <si>
+    <t>885DFBB6343A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D31</t>
+  </si>
+  <si>
+    <t>885DFBB61BB0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB817C</t>
+  </si>
+  <si>
+    <t>885DFBB63572</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A4A</t>
+  </si>
+  <si>
+    <t>885DFBB60A46</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A40</t>
+  </si>
+  <si>
+    <t>885DFBB60A0A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A42</t>
+  </si>
+  <si>
+    <t>885DFBB60A16</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8142</t>
+  </si>
+  <si>
+    <t>885DFBB63416</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80CC</t>
+  </si>
+  <si>
+    <t>885DFBB63152</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7ABF</t>
+  </si>
+  <si>
+    <t>885DFBB60D04</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8181</t>
+  </si>
+  <si>
+    <t>885DFBB63590</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81F1</t>
+  </si>
+  <si>
+    <t>885DFBB63830</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C6</t>
+  </si>
+  <si>
+    <t>885DFBB6372E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A28</t>
+  </si>
+  <si>
+    <t>885DFBB6097A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8167</t>
+  </si>
+  <si>
+    <t>885DFBB634F4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81B8</t>
+  </si>
+  <si>
+    <t>885DFBB636DA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81EC</t>
+  </si>
+  <si>
+    <t>885DFBB63812</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C4D</t>
+  </si>
+  <si>
+    <t>885DFBB61658</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C83</t>
+  </si>
+  <si>
+    <t>885DFBB6179C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8118</t>
+  </si>
+  <si>
+    <t>885DFBB6331A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80D1</t>
+  </si>
+  <si>
+    <t>885DFBB63170</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80D9</t>
+  </si>
+  <si>
+    <t>885DFBB631A0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8104</t>
+  </si>
+  <si>
+    <t>885DFBB632A2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80B7</t>
+  </si>
+  <si>
+    <t>885DFBB630D4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7B75</t>
+  </si>
+  <si>
+    <t>885DFBB61148</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8174</t>
+  </si>
+  <si>
+    <t>885DFBB63542</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80C9</t>
+  </si>
+  <si>
+    <t>885DFBB63140</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F9D</t>
+  </si>
+  <si>
+    <t>885DFBB62A38</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB801A</t>
+  </si>
+  <si>
+    <t>885DFBB62D26</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AB4</t>
+  </si>
+  <si>
+    <t>885DFBB60CC2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F0B</t>
+  </si>
+  <si>
+    <t>885DFBB626CC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB814A</t>
+  </si>
+  <si>
+    <t>885DFBB63446</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BE0</t>
+  </si>
+  <si>
+    <t>885DFBB613CA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A3C</t>
+  </si>
+  <si>
+    <t>885DFBB609F2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8179</t>
+  </si>
+  <si>
+    <t>885DFBB63560</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AC1</t>
+  </si>
+  <si>
+    <t>885DFBB60D10</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BAB</t>
+  </si>
+  <si>
+    <t>885DFBB6128C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8086</t>
+  </si>
+  <si>
+    <t>885DFBB62FAE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7ACA</t>
+  </si>
+  <si>
+    <t>885DFBB60D46</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8170</t>
+  </si>
+  <si>
+    <t>885DFBB6352A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A88</t>
+  </si>
+  <si>
+    <t>885DFBB60BBA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A3B</t>
+  </si>
+  <si>
+    <t>885DFBB609EC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A92</t>
+  </si>
+  <si>
+    <t>885DFBB60BF6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9583</t>
+  </si>
+  <si>
+    <t>885DFBB6AD9C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9591</t>
+  </si>
+  <si>
+    <t>885DFBB6ADF0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB978E</t>
+  </si>
+  <si>
+    <t>885DFBB6B9DE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB96AD</t>
+  </si>
+  <si>
+    <t>885DFBB6B498</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB752C</t>
+  </si>
+  <si>
+    <t>885DFBB5EB92</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB95AF</t>
+  </si>
+  <si>
+    <t>885DFBB6AEA4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9766</t>
+  </si>
+  <si>
+    <t>885DFBB6B8EE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9961</t>
+  </si>
+  <si>
+    <t>885DFBB6C4D0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB973B</t>
+  </si>
+  <si>
+    <t>885DFBB6B7EC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB972F</t>
+  </si>
+  <si>
+    <t>885DFBB6B7A4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB958B</t>
+  </si>
+  <si>
+    <t>885DFBB6ADCC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9574</t>
+  </si>
+  <si>
+    <t>885DFBB6AD42</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB973A</t>
+  </si>
+  <si>
+    <t>885DFBB6B7E6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9720</t>
+  </si>
+  <si>
+    <t>885DFBB6B74A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7765</t>
+  </si>
+  <si>
+    <t>885DFBB5F8E8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9571</t>
+  </si>
+  <si>
+    <t>885DFBB6AD30</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB99F9</t>
+  </si>
+  <si>
+    <t>885DFBB6C860</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74AC</t>
+  </si>
+  <si>
+    <t>885DFBB5E892</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74FE</t>
+  </si>
+  <si>
+    <t>885DFBB5EA7E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB998F</t>
+  </si>
+  <si>
+    <t>885DFBB6C5E4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB959D</t>
+  </si>
+  <si>
+    <t>885DFBB6AE38</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB979A</t>
+  </si>
+  <si>
+    <t>885DFBB6BA26</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9540</t>
+  </si>
+  <si>
+    <t>885DFBB6AC0A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB974F</t>
+  </si>
+  <si>
+    <t>885DFBB6B864</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7CF5</t>
+  </si>
+  <si>
+    <t>885DFBB61A48</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB96AE</t>
+  </si>
+  <si>
+    <t>885DFBB6B49E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9548</t>
+  </si>
+  <si>
+    <t>885DFBB6AC3A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9789</t>
+  </si>
+  <si>
+    <t>885DFBB6B9C0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74BD</t>
+  </si>
+  <si>
+    <t>885DFBB5E8F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB757E</t>
+  </si>
+  <si>
+    <t>885DFBB5ED7E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB810C</t>
+  </si>
+  <si>
+    <t>885DFBB632D2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BE6</t>
+  </si>
+  <si>
+    <t>885DFBB613EE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81CB</t>
+  </si>
+  <si>
+    <t>885DFBB6374C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7FF3</t>
+  </si>
+  <si>
+    <t>885DFBB62C3C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80FF</t>
+  </si>
+  <si>
+    <t>885DFBB63284</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB816B</t>
+  </si>
+  <si>
+    <t>885DFBB6350C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB814F</t>
+  </si>
+  <si>
+    <t>885DFBB63464</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8061</t>
+  </si>
+  <si>
+    <t>885DFBB62ED0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7FC9</t>
+  </si>
+  <si>
+    <t>885DFBB62B40</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81BB</t>
+  </si>
+  <si>
+    <t>885DFBB636EC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A45</t>
+  </si>
+  <si>
+    <t>885DFBB60A28</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8165</t>
+  </si>
+  <si>
+    <t>885DFBB634E8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A49</t>
+  </si>
+  <si>
+    <t>885DFBB60A40</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80B4</t>
+  </si>
+  <si>
+    <t>885DFBB630C2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7E51</t>
+  </si>
+  <si>
+    <t>885DFBB62270</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A3D</t>
+  </si>
+  <si>
+    <t>885DFBB609F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7B80</t>
+  </si>
+  <si>
+    <t>885DFBB6118A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A48</t>
+  </si>
+  <si>
+    <t>885DFBB60A3A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C7</t>
+  </si>
+  <si>
+    <t>885DFBB63734</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB813D</t>
+  </si>
+  <si>
+    <t>885DFBB633F8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AA2</t>
+  </si>
+  <si>
+    <t>885DFBB60C56</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7EC9</t>
+  </si>
+  <si>
+    <t>885DFBB62540</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB811B</t>
+  </si>
+  <si>
+    <t>885DFBB6332C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A3A</t>
+  </si>
+  <si>
+    <t>885DFBB609E6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A91</t>
+  </si>
+  <si>
+    <t>885DFBB60BF0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D3E</t>
+  </si>
+  <si>
+    <t>885DFBB61BFE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AA0</t>
+  </si>
+  <si>
+    <t>885DFBB60C4A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7894</t>
+  </si>
+  <si>
+    <t>885DFBB60002</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A38</t>
+  </si>
+  <si>
+    <t>885DFBB609DA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7ACF</t>
+  </si>
+  <si>
+    <t>885DFBB60D64</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8106</t>
+  </si>
+  <si>
+    <t>885DFBB632AE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BA3</t>
+  </si>
+  <si>
+    <t>885DFBB6125C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB815A</t>
+  </si>
+  <si>
+    <t>885DFBB634A6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81D8</t>
+  </si>
+  <si>
+    <t>885DFBB6379A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7CCF</t>
+  </si>
+  <si>
+    <t>885DFBB61964</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F92</t>
+  </si>
+  <si>
+    <t>885DFBB629F6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8166</t>
+  </si>
+  <si>
+    <t>885DFBB634EE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BF3</t>
+  </si>
+  <si>
+    <t>885DFBB6143C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB819A</t>
+  </si>
+  <si>
+    <t>885DFBB63626</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8169</t>
+  </si>
+  <si>
+    <t>885DFBB63500</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7FAB</t>
+  </si>
+  <si>
+    <t>885DFBB62A8C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81BA</t>
+  </si>
+  <si>
+    <t>885DFBB636E6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7BA0</t>
+  </si>
+  <si>
+    <t>885DFBB6124A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7F35</t>
+  </si>
+  <si>
+    <t>885DFBB627C8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8151</t>
+  </si>
+  <si>
+    <t>885DFBB63470</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB811A</t>
+  </si>
+  <si>
+    <t>885DFBB63326</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB814B</t>
+  </si>
+  <si>
+    <t>885DFBB6344C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D0C</t>
+  </si>
+  <si>
+    <t>885DFBB61AD2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81B4</t>
+  </si>
+  <si>
+    <t>885DFBB636C2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81A8</t>
+  </si>
+  <si>
+    <t>885DFBB6367A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81D7</t>
+  </si>
+  <si>
+    <t>885DFBB63794</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AC0</t>
+  </si>
+  <si>
+    <t>885DFBB60D0A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB813E</t>
+  </si>
+  <si>
+    <t>885DFBB633FE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81AC</t>
+  </si>
+  <si>
+    <t>885DFBB63692</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A87</t>
+  </si>
+  <si>
+    <t>885DFBB60BB4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8119</t>
+  </si>
+  <si>
+    <t>885DFBB63320</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB819F</t>
+  </si>
+  <si>
+    <t>885DFBB63644</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80F6</t>
+  </si>
+  <si>
+    <t>885DFBB6324E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8176</t>
+  </si>
+  <si>
+    <t>885DFBB6354E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81C2</t>
+  </si>
+  <si>
+    <t>885DFBB63716</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AAA</t>
+  </si>
+  <si>
+    <t>885DFBB60C86</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7EC1</t>
+  </si>
+  <si>
+    <t>885DFBB62510</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C87</t>
+  </si>
+  <si>
+    <t>885DFBB617B4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7B4B</t>
+  </si>
+  <si>
+    <t>885DFBB6104C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A7A</t>
+  </si>
+  <si>
+    <t>885DFBB60B66</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB816D</t>
+  </si>
+  <si>
+    <t>885DFBB63518</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7EEE</t>
+  </si>
+  <si>
+    <t>885DFBB6261E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81B3</t>
+  </si>
+  <si>
+    <t>885DFBB636BC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7E5A</t>
+  </si>
+  <si>
+    <t>885DFBB622A6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80D0</t>
+  </si>
+  <si>
+    <t>885DFBB6316A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80D6</t>
+  </si>
+  <si>
+    <t>885DFBB6318E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D5B</t>
+  </si>
+  <si>
+    <t>885DFBB61CAC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7E8A</t>
+  </si>
+  <si>
+    <t>885DFBB623C6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81F5</t>
+  </si>
+  <si>
+    <t>885DFBB63848</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB816E</t>
+  </si>
+  <si>
+    <t>885DFBB6351E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7840</t>
+  </si>
+  <si>
+    <t>885DFBB5FE0A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB806B</t>
+  </si>
+  <si>
+    <t>885DFBB62F0C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB81F9</t>
+  </si>
+  <si>
+    <t>885DFBB63860</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7FCA</t>
+  </si>
+  <si>
+    <t>885DFBB62B46</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7A86</t>
+  </si>
+  <si>
+    <t>885DFBB60BAE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AB5</t>
+  </si>
+  <si>
+    <t>885DFBB60CC8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB817A</t>
+  </si>
+  <si>
+    <t>885DFBB63566</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB818F</t>
+  </si>
+  <si>
+    <t>885DFBB635E4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB8172</t>
+  </si>
+  <si>
+    <t>885DFBB63536</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AB6</t>
+  </si>
+  <si>
+    <t>885DFBB60CCE</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB813F</t>
+  </si>
+  <si>
+    <t>885DFBB63404</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7AC2</t>
+  </si>
+  <si>
+    <t>885DFBB60D16</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB80C6</t>
+  </si>
+  <si>
+    <t>885DFBB6312E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C85</t>
+  </si>
+  <si>
+    <t>885DFBB617A8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7E8B</t>
+  </si>
+  <si>
+    <t>885DFBB623CC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A1E</t>
+  </si>
+  <si>
+    <t>885DFBB6C93E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9767</t>
+  </si>
+  <si>
+    <t>885DFBB6B8F4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C98</t>
+  </si>
+  <si>
+    <t>885DFBB6181A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7C31</t>
+  </si>
+  <si>
+    <t>885DFBB615B0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D42</t>
+  </si>
+  <si>
+    <t>885DFBB61C16</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7EB0</t>
+  </si>
+  <si>
+    <t>885DFBB624AA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB749E</t>
+  </si>
+  <si>
+    <t>885DFBB5E83E</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A9A</t>
+  </si>
+  <si>
+    <t>885DFBB6CC26</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97A7</t>
+  </si>
+  <si>
+    <t>885DFBB6BA74</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB752D</t>
+  </si>
+  <si>
+    <t>885DFBB5EB98</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB998D</t>
+  </si>
+  <si>
+    <t>885DFBB6C5D8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74B5</t>
+  </si>
+  <si>
+    <t>885DFBB5E8C8</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9513</t>
+  </si>
+  <si>
+    <t>885DFBB6AAFC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9512</t>
+  </si>
+  <si>
+    <t>885DFBB6AAF6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74FD</t>
+  </si>
+  <si>
+    <t>885DFBB5EA78</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7489</t>
+  </si>
+  <si>
+    <t>885DFBB5E7C0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74D0</t>
+  </si>
+  <si>
+    <t>885DFBB5E96A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A00</t>
+  </si>
+  <si>
+    <t>885DFBB6C88A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74CA</t>
+  </si>
+  <si>
+    <t>885DFBB5E946</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9514</t>
+  </si>
+  <si>
+    <t>885DFBB6AB02</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74AB</t>
+  </si>
+  <si>
+    <t>885DFBB5E88C</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A41</t>
+  </si>
+  <si>
+    <t>885DFBB6CA10</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB952D</t>
+  </si>
+  <si>
+    <t>885DFBB6AB98</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9987</t>
+  </si>
+  <si>
+    <t>885DFBB6C5B4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7452</t>
+  </si>
+  <si>
+    <t>885DFBB5E676</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB749D</t>
+  </si>
+  <si>
+    <t>885DFBB5E838</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB953A</t>
+  </si>
+  <si>
+    <t>885DFBB6ABE6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB99F5</t>
+  </si>
+  <si>
+    <t>885DFBB6C848</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB749C</t>
+  </si>
+  <si>
+    <t>885DFBB5E832</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7490</t>
+  </si>
+  <si>
+    <t>885DFBB5E7EA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9751</t>
+  </si>
+  <si>
+    <t>885DFBB6B870</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9770</t>
+  </si>
+  <si>
+    <t>885DFBB6B92A</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9515</t>
+  </si>
+  <si>
+    <t>885DFBB6AB08</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB953B</t>
+  </si>
+  <si>
+    <t>885DFBB6ABEC</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97B0</t>
+  </si>
+  <si>
+    <t>885DFBB6BAAA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7D60</t>
+  </si>
+  <si>
+    <t>885DFBB61CCA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97A5</t>
+  </si>
+  <si>
+    <t>885DFBB6BA68</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7494</t>
+  </si>
+  <si>
+    <t>885DFBB5E802</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A0A</t>
+  </si>
+  <si>
+    <t>885DFBB6C8C6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A37</t>
+  </si>
+  <si>
+    <t>885DFBB6C9D4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB97A9</t>
+  </si>
+  <si>
+    <t>885DFBB6BA80</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7788</t>
+  </si>
+  <si>
+    <t>885DFBB5F9BA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB75C9</t>
+  </si>
+  <si>
+    <t>885DFBB5EF40</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB99E1</t>
+  </si>
+  <si>
+    <t>885DFBB6C7D0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB999A</t>
+  </si>
+  <si>
+    <t>885DFBB6C626</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9542</t>
+  </si>
+  <si>
+    <t>885DFBB6AC16</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9A3A</t>
+  </si>
+  <si>
+    <t>885DFBB6C9E6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB975A</t>
+  </si>
+  <si>
+    <t>885DFBB6B8A6</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9757</t>
+  </si>
+  <si>
+    <t>885DFBB6B894</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9745</t>
+  </si>
+  <si>
+    <t>885DFBB6B828</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB952F</t>
+  </si>
+  <si>
+    <t>885DFBB6ABA4</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7795</t>
+  </si>
+  <si>
+    <t>885DFBB5FA08</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74C7</t>
+  </si>
+  <si>
+    <t>885DFBB5E934</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB74B4</t>
+  </si>
+  <si>
+    <t>885DFBB5E8C2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7460</t>
+  </si>
+  <si>
+    <t>885DFBB5E6CA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7777</t>
+  </si>
+  <si>
+    <t>885DFBB5F954</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB9530</t>
+  </si>
+  <si>
+    <t>885DFBB6ABAA</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB748C</t>
+  </si>
+  <si>
+    <t>885DFBB5E7D2</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB7491</t>
+  </si>
+  <si>
+    <t>885DFBB5E7F0</t>
+  </si>
+  <si>
+    <t>ZTEGCAFB75E4</t>
+  </si>
+  <si>
+    <t>885DFBB5EFE2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -83,12 +1869,27 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -99,21 +1900,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -162,7 +1981,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,7 +2016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,21 +2225,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
     <col min="257" max="257" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,1826 +2250,3315 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="A2:B301">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2499">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C9</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C17</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C18</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C20</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C22</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C23</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C25</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C26</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C27</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C30</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C31</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C34</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C41</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C42</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C43</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C44</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C45</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C46</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C47</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C48</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C49</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C50</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C51</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C52</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C53</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C54</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C55</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C56</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C57</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C58</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C59</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C60</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C61</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C62</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C63</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C64</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C65</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C66</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C67</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C68</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C69</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C70</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C71</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C73</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C74</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C75</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C76</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C77</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C78</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C79</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C80</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C81</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C82</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C83</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C85</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C86</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C87</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C88</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C89</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C90</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C91</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C92</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C93</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C94</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C95</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C96</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C97</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C98</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C99</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C100</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C101</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C102</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C103</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C104</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C105</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C106</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C107</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C108</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C109</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C110</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C111</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C112</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C113</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C114</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C115</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C116</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C117</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C118</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C119</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C120</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C121</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C122</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C123</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C124</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C125</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C126</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C127</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C128</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C129</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C130</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C131</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C132</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C133</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C134</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C135</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C136</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C137</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C138</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C139</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C140</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C141</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C142</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C143</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C144</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C146</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C147</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C148</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C149</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C150</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C151</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C152</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C153</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C154</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C155</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C156</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C157</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C158</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C159</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C160</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C161</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C162</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C163</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C164</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C165</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C166</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C167</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C168</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C169</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C170</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C171</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C172</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C173</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C174</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C175</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C176</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C177</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C178</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C179</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C180</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C181</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C182</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C183</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C184</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C185</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C186</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C187</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C188</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C189</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C190</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C191</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C192</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C193</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C194</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C195</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C196</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C197</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C198</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C199</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C200</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C201</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C202</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C203</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C204</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C205</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C206</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C207</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C208</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C209</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C210</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C211</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C212</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C213</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C214</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C215</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C216</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C217</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C218</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C219</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C220</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C221</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C222</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C223</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C224</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C225</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C226</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C227</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C228</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C229</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C230</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C231</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C232</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C233</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C234</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C235</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C236</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C237</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C238</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C239</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C240</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C241</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C242</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C243</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C244</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C245</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C246</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C247</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C248</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C249</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C250</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C251</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C252</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C253</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C254</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C255</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C256</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C257</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C258</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C259</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C260</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C261</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C262</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C263</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C264</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C265</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C266</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C267</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C268</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C269</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C270</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C271</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C272</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C273</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C274</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C275</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C276</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C277</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C278</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C279</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C280</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C281</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C282</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C283</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C284</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C285</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C286</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C287</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C288</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C289</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C290</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C291</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C292</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C293</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C294</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C295</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C296</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C297</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C298</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C299</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C300</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet2!$B$2:$B$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>C301</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2200">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
@@ -15444,6 +18752,12 @@
             <xm:f>Sheet2!$B$2:$B$8</xm:f>
           </x14:formula1>
           <xm:sqref>C2500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet2!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C301</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15459,39 +18773,39 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
